--- a/medicine/Mort/Ancien_cimetière_de_Courbevoie/Ancien_cimetière_de_Courbevoie.xlsx
+++ b/medicine/Mort/Ancien_cimetière_de_Courbevoie/Ancien_cimetière_de_Courbevoie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Courbevoie</t>
+          <t>Ancien_cimetière_de_Courbevoie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière ancien de Courbevoie est un cimetière communal se trouvant 31 boulevard Saint-Denis et 3 place des Trois-Frères-Rocquigny à Courbevoie, dans les Hauts-de-Seine[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière ancien de Courbevoie est un cimetière communal se trouvant 31 boulevard Saint-Denis et 3 place des Trois-Frères-Rocquigny à Courbevoie, dans les Hauts-de-Seine,.
 Le cimetière est converti en espace vert. Les inhumations n'y sont plus possibles que dans des concessions existantes. Seules subsistent quelques sépultures dont l'architecture présente un intérêt patrimonial ou historique.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Courbevoie</t>
+          <t>Ancien_cimetière_de_Courbevoie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Courbevoie</t>
+          <t>Ancien_cimetière_de_Courbevoie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,10 +552,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière est ouvert en 1783. Une fosse militaire contient les restes de six soldats allemands tués au combat de La Défense pendant la guerre de 1870.
-Réhabilité entre 2010 et 2012 par le réaménagement de ses allées et la plantation de végétaux (arbre aux quarante écus ; arbre liège de l'Amour ; chitalpa de Tachkent ; cyprès de Lawson ; hêtre fastigié ; margousier ;  néflier du Japon ; oranger des Osages ; sapin d'Espagne ; séquoia pleureur ; tulipier de Virginie ; camélias[3]), il est labellisé par la Ligue pour la protection des oiseaux[4]. 
+Réhabilité entre 2010 et 2012 par le réaménagement de ses allées et la plantation de végétaux (arbre aux quarante écus ; arbre liège de l'Amour ; chitalpa de Tachkent ; cyprès de Lawson ; hêtre fastigié ; margousier ;  néflier du Japon ; oranger des Osages ; sapin d'Espagne ; séquoia pleureur ; tulipier de Virginie ; camélias), il est labellisé par la Ligue pour la protection des oiseaux. 
 </t>
         </is>
       </c>
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Courbevoie</t>
+          <t>Ancien_cimetière_de_Courbevoie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,18 +586,20 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deux maires de Courbevoie :
-Jacques Grébaut (ca 1785-1840), en fonctions de 1830 à son décès (colonne commémorative[5]),
+Jacques Grébaut (ca 1785-1840), en fonctions de 1830 à son décès (colonne commémorative),
 André Grisoni (1886-1975), en fonctions de 1927 à 1944 ;
-Hercule-Philippe-Étienne de Baschi du Cayla (1747-1826), pair de France (inscrite à l'Inventaire général du patrimoine culturel[6]) ;
+Hercule-Philippe-Étienne de Baschi du Cayla (1747-1826), pair de France (inscrite à l'Inventaire général du patrimoine culturel) ;
 Gustave Larnac (1793-1868), député de la monarchie de Juillet ;
 Félix Ferri-Pisani-Jourdan (1809-1881) et son fils, Maurice Ferri-Pisani-Jourdan (1841-1921), généraux et comtes de Saint-Anastase, descendants du maréchal Jourdan ;
 Paul Gondolo (1813-1895), créateur de la biscuiterie  éponyme devenue Belin ;
 William Drooke Harrison (1822-1893), photographe né en Grande-Bretagne ;
-Edmond Asselin de Villequier (1834-1908), prêtre, vicaire de Courbevoie du 19 mars 1873 jusqu'à sa mort[7];
-George William Kilford (1834-1903)[8], membre de l'Institut des Actuaires (en). La rue de Courbevoie où il résidait porte son nom. À l'endroit de sa demeure, au no 30, s'élève une maison de santé protestante nommée « Les Tilleuls ». La ville l'acquiert et y inaugure, le 28 juillet 1930, l'« hôpital Marcellin Berthelot »[9], actuel « centre hospitalier Rives de Seine » ;
+Edmond Asselin de Villequier (1834-1908), prêtre, vicaire de Courbevoie du 19 mars 1873 jusqu'à sa mort;
+George William Kilford (1834-1903), membre de l'Institut des Actuaires (en). La rue de Courbevoie où il résidait porte son nom. À l'endroit de sa demeure, au no 30, s'élève une maison de santé protestante nommée « Les Tilleuls ». La ville l'acquiert et y inaugure, le 28 juillet 1930, l'« hôpital Marcellin Berthelot », actuel « centre hospitalier Rives de Seine » ;
 Lucien Collin (1849-1919), baryton et compositeur de musique ;
 Philippe de Félice (1880-1964), pasteur de l'Église réformée de France, auteur d'ouvrages de théologie et d'histoire religieuse ;
 Sœurs de la Providence de Portieux (carré à l'abandon) ;
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Courbevoie</t>
+          <t>Ancien_cimetière_de_Courbevoie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tombe Grébaut.
